--- a/testData/AddToCart.xlsx
+++ b/testData/AddToCart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91931\eclipse-workspace\WebApp_SauceLabs\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D62FB7-E6FB-427C-B2C4-9FF6C1FAAAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4081A57-5F80-4983-979A-85B26C252CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -410,15 +410,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
